--- a/planilha/todas_demandas.xlsx
+++ b/planilha/todas_demandas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Data da Notificação</t>
   </si>
@@ -49,20 +49,17 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t>MARLENE NUNES HONDA TAVARES</t>
-  </si>
-  <si>
-    <t>Beneficiário  questiona a não cobertura para os materiais , para realização do procedimento HISTERECTOMIA TOTAL(conforme pedido medico)_x005F_x000D_
-, solicitado em 02/02/2023. Interlocutora informa que medico Dr doutor Sebastião do Hospital Check up não trabalha com o fornecedor da Operadora. Interlocutora informa que não foi disponibilizado nenhum protocolo de atendimento.</t>
-  </si>
-  <si>
-    <t>SIM</t>
+    <t>MÔNICA ALVES GOMES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beneficiária, questiona o não atendimento para Atendimento de urgência/emergência. Relata que tentou entrar em contato com a Operadora por meio  dos telefones 3370-6017 / 0800 111 5859 - na data 13/04/2023, em torno das 8h, sem sucesso. Questiona também que o resultado dos exames, realizados há 15 dias, ainda não foram disponibilizados no APP._x005F_x000D_
+</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
   <si>
     <t>Assistencial</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -467,19 +464,19 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
-        <v>45028.49978009259</v>
+        <v>45029.349375</v>
       </c>
       <c r="B2">
-        <v>12166383</v>
+        <v>12168095</v>
       </c>
       <c r="C2">
-        <v>8604036</v>
+        <v>8606114</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>16111834215</v>
+        <v>2573399494</v>
       </c>
       <c r="F2" t="s">
         <v>12</v>
@@ -494,7 +491,7 @@
         <v>14</v>
       </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="K2">
         <v>7</v>

--- a/planilha/todas_demandas.xlsx
+++ b/planilha/todas_demandas.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="118">
   <si>
     <t>Data da Notificação</t>
   </si>
@@ -49,17 +49,338 @@
     <t>Unnamed: 0</t>
   </si>
   <si>
-    <t>MÔNICA ALVES GOMES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Beneficiária, questiona o não atendimento para Atendimento de urgência/emergência. Relata que tentou entrar em contato com a Operadora por meio  dos telefones 3370-6017 / 0800 111 5859 - na data 13/04/2023, em torno das 8h, sem sucesso. Questiona também que o resultado dos exames, realizados há 15 dias, ainda não foram disponibilizados no APP._x005F_x000D_
+    <t>MELINDA GOULART CRUZ</t>
+  </si>
+  <si>
+    <t>JORGE EUSTACIO MEDEIROS</t>
+  </si>
+  <si>
+    <t>NATALIA SOLANO ROSSELIS PEREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>HEITOR LIMA DA SILVA</t>
+  </si>
+  <si>
+    <t>SABRINA NAZARETH BRAZ DOS SANTOS RODRIGUES</t>
+  </si>
+  <si>
+    <t>IANA CAROLINA BASANTE DE ALBUQUERQUE</t>
+  </si>
+  <si>
+    <t>CLEIDE DE LIMA ALVES</t>
+  </si>
+  <si>
+    <t>CINTHIA KARLA OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>JOSINEIDE LUIZA DE OLIVEIRA VALENTIM</t>
+  </si>
+  <si>
+    <t>JOANNA MORAIS PEREIRA DO MONTE MENDES</t>
+  </si>
+  <si>
+    <t>DAIANA KELLY SOUZA DA SILVA</t>
+  </si>
+  <si>
+    <t>JULIANA TORREAO DE SA MARQUES</t>
+  </si>
+  <si>
+    <t>HEITOR GUILHERME ALVES COSTA</t>
+  </si>
+  <si>
+    <t>MARIA CLARA VASCONCELOS CARVALHO</t>
+  </si>
+  <si>
+    <t>JULIA ROCHA DE ALBUQUERQUE ERNANI SOUZA</t>
+  </si>
+  <si>
+    <t>WERISLAYNI OLIVEIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>GUILHERME MIGUEL ANGOTI DOS SANTOS</t>
+  </si>
+  <si>
+    <t>ISABELA LORRANE SANTOS ANGOTI PIMENTEL</t>
+  </si>
+  <si>
+    <t>IVENY MARQUES DA COSTA GOMES</t>
+  </si>
+  <si>
+    <t>CAUA HENRIQUE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>VANIA VIEIRA SOUTO MAIOR</t>
+  </si>
+  <si>
+    <t>BRUNO RUAN DE SOUZA</t>
+  </si>
+  <si>
+    <t>MAICKEL DOUGLAS SANTOS ROCHA</t>
+  </si>
+  <si>
+    <t>MAITE BEATRIZ GUIMARÃES RIBEIRO</t>
+  </si>
+  <si>
+    <t>MATHEUS FARIA DAMM</t>
+  </si>
+  <si>
+    <t>THEO TENORIO FERREIRA</t>
+  </si>
+  <si>
+    <t>GABRIELLE DOS SANTOS BONIFÁCIO</t>
+  </si>
+  <si>
+    <t>MOEMA DAYANNE TORRES SIQUEIRA XAVIER</t>
+  </si>
+  <si>
+    <t>ZEINA BARROS DE ARAUJO</t>
+  </si>
+  <si>
+    <t>RENATA FERNANDA DOS SANTOS</t>
+  </si>
+  <si>
+    <t>CRISTIANE MARIA NUNES DE OLIVEIRA</t>
+  </si>
+  <si>
+    <t>ROMERO MARQUES</t>
+  </si>
+  <si>
+    <t>BARBARA KELLY CARNEIRO LEÃO RODRIGUES</t>
+  </si>
+  <si>
+    <t>RILDEMBERG LIMA DA COSTA</t>
+  </si>
+  <si>
+    <t>SARAH LUIZ SOUZA DA SILVA</t>
+  </si>
+  <si>
+    <t>SARAH DE OLIVEIRA PEREZ</t>
+  </si>
+  <si>
+    <t>KATIA CRISTINA DA SILVA</t>
+  </si>
+  <si>
+    <t>EMANUELA VIEIRA ESTEVES</t>
+  </si>
+  <si>
+    <t>GEOVANE PASSOS RIBEIRO</t>
+  </si>
+  <si>
+    <t>MARLY PAULA ARAUJO DA SILVA</t>
+  </si>
+  <si>
+    <t>CAMILA BARBOSA DE ARRUDA</t>
+  </si>
+  <si>
+    <t>CLAUDINEI DA SILVA</t>
+  </si>
+  <si>
+    <t>ANTONIO SILVA GONZAGA</t>
+  </si>
+  <si>
+    <t>GENIVAL BEZERRA DE LIMA</t>
+  </si>
+  <si>
+    <t>SAMUEL RIBEIRO LUCIO</t>
+  </si>
+  <si>
+    <t>JOSE ERALDO DA SILVA</t>
+  </si>
+  <si>
+    <t>ITAMAR FAUSTINO TORRES DE ARAUJO</t>
+  </si>
+  <si>
+    <t>CLICIA DE JESUS DA SILVA</t>
+  </si>
+  <si>
+    <t>LUCIANA BEZERRA DA SILVA</t>
+  </si>
+  <si>
+    <t>MARIO JORGE MARICAUA ANTONACCIO</t>
+  </si>
+  <si>
+    <t>NADIA ROSANA SANTANA FREIRE</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a não cobertura para consulta com endocrinologista  . O procedimento foi solicitado à operadora no mês 03/2023 , para realização no município Belo Horizonte . A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo : 36825320230330977433  Data : 30/03/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como filha do beneficiário, questiona a falta de atendimento para RM - Multiparamétrica transretal da próstata. A solicitação foi feita à Operadora no dia 14/03/2023, para realização no município Belo Horizonte. A operadora não apresenta resposta ao pedido. Protocolo 36825320230412185311 DATA:12/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, informa que solicitou à operadora, em 01/03/2023, a exclusão em plano coletivo empresarial Compacta Benefícios, 30/03/202. Até a presente data não houve a exclusão. Relata que recebeu boleto de mensalidade de Abril/2023 para pagamento. Relata que o contato com a operadora foi através de carta (a mão conforme solicitação da operadora), por e-mail, não foi fornecido protocolo.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para Pronto Atendimento. A solicitação foi feita à Operadora no dia 13/04/2023, para realização no município Recife. A operadora não apresenta resposta ao pedido. Protocolo: 42238020230413488611   data: 13/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária questiona a não cobertura para Ortopedista em caráter de urgência em pronto atendimento. O procedimento foi solicitado à operadora no dia 14/04/2023 para realização no município Recife. A operadora alega que não possui prestador em sua rede para realização do serviço de saúde. Protocolo - A operadora não informou Data 14/04/2023</t>
+  </si>
+  <si>
+    <t>SOLICITEI AUTORIZAÇÃO DE EXAME DE RESSONACIA MAGNETICA  SOB PROT 42238020230414490589, PARA SER REALIZADO EM SUA REDE CREDENCIADA ( SANTA JOANA DIAGNOSTIGO) POREM A MESMO  PRE DETERMINOU LOCAL DE REALIZAÇÃO, MESMO TEM CONVENIO COM O SANTA JOANA, NÃO PERMITIDO QUE O CLIENTE ESCOLA O PRESTADO DE ACORDO COM A REDE QUE O PLANO DE SAUDE OFERECE EM SUA REDE DE CREDENCIADOS, TOLHINDO O DIREITO DE ESCOLHA DO CLIENTE DE ESCOLHAR UM PRESTADO DENTRO DA REDE CREDENCIADA DO PLANO DE SAUDE._x005F_x000D_
+O MESMO OCORREU COM MEU DEPEDENTE, O EXAME FOI MARCADO PARA UM DOMINGO  PARA O SANTA JOANA QUE CONFIRMOU QUE ATENDIA O PLANO DE SAUDE E QUANDO CHEGOU LÁ , TIVE QUE ENTRAR EM CONTATO COM O PLANO POQUE A SENHA DE AUTORIZAÇÃO NÃO APARECIA EM SEU SISTEMA E QUANDO LIGUEI ESTAVA PARA OUTRA LOCAL JÁ DETERMIDADO , EM DADO MOMENTO O RAPAZ REALIZOU A TROCA DO PARA O SANTA JOANA E O EXAME FOI REALIZADO_x005F_x000D_
+LIGUE 6 X PARA O SAC E A OUVIDORIA E AS MESMA NÃO ATENDE, FAZEM O CLEINTE ESPERAR  POR MAIS DE 20 MIM, SEM OBTER ATENDIMENT</t>
+  </si>
+  <si>
+    <t>Beneficiária questiona o não atendimento para Clínico Geral para atendimento em pronto socorro. Relata que tentou entrar em contato com a Operadora por meio dos telefones 3370-7017 /  08001115859  - na data 14/04/2023, sem sucesso.</t>
+  </si>
+  <si>
+    <t>SOLICITADO COM ANEXO DO PEDIDO MÉDICO A RESSONÂNCIA DOS JOELHOS ONDE DESDE 28/02 NÃO TIVE RESPOSTA. A SOLICITAÇÃO ABERTA ELES DEIXAM STATUS COMO CONCLUÍDO PORÉM NA RESPOSTA ELES COLOCAM QUE ESTÁ SENDO AVALIADO PELA EQUIPE DE AUDITORIA E QUE O PRAZO É DE 21 DIAS ÚTEIS E ATÉ O MOMENTO SEM RETORNO. ABRIR UM CHAMADO NA OUVIDORIA DO YOU TAMBÉM NÃO TIVE RESPOSTAS. ESTOU PRECISANDO DO EXAME E NEM UM RETORNO AO CLIENTE. ELES PRECISAM ATENTAR QUE 21 DIAS ÚTEIS É O PRAZO MÁXIMO. ABRIR OUTRO PROTOCOLO EM 13/04 QUESTIONANDO O RETORNO E ATÉ O MOMENTO TAMBÉM SEM RESPOSTAS, DESTA FORMA, PRECISEI APELAR VIA ANS.</t>
+  </si>
+  <si>
+    <t>SOLICITADO COM ANEXO DO PEDIDO MÉDICO A USG ABDOMEN TOTAL E ENDOVAGINAL ONDE DESDE 10/03 NÃO TIVE RESPOSTA. A SOLICITAÇÃO ABERTA ELES DEIXAM STATUS COMO CONCLUÍDO PORÉM NA RESPOSTA ELES COLOCAM QUE ESTÁ SENDO AVALIADO PELA EQUIPE DE AUDITORIA E QUE O PRAZO É DE 10 DIAS ÚTEIS E ATÉ O MOMENTO SEM RETORNO. ABRIR UM CHAMADO NA OUVIDORIA DO YOU TAMBÉM NÃO TIVE RESPOSTAS. ESTOU PRECISANDO DOS EXAMES E NEM UM RETORNO AO CLIENTE.  ABRIR OUTRO PROTOCOLO EM 13/04 QUESTIONANDO O RETORNO E ATÉ O MOMENTO TAMBÉM SEM RESPOSTAS, DESTA FORMA, PRECISEI APELAR VIA ANS.</t>
+  </si>
+  <si>
+    <t>Interlocutor que se identifica como filho da beneficiária questiona a não cobertura para ENDOCRINOLOGIA E METABOLOGIA, com Dra Gabriela Amanda da Silva Moreira. O atendimento foi solicitado à operadora no dia 04/03/2023 para realização no município Recife/PE.  A operadora descredenciou a profissional e outros serviços do Hospital Santa Joana e até o momento não apresentou outro prestador para realizar o atendimento. Protocolo: 42238020230417494595.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para 31005470 Colecistectomia com colangiografia por videolaparoscopia. A solicitação foi feita à Operadora no dia 13/03/2023, para realização no município Recife. A operadora alega que o pedido está em análise [. Protocolo 42538020234417495047 - data  07/04/2023</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como beneficiária, questiona a falta de atendimento para histerectomia. A solicitação foi feita à Operadora no dia 03/2023, para realização no município Recife/PE. A operadora alega que o pedido está em análise . Protocolo 42238020230417495000 data 17/04/2023</t>
+  </si>
+  <si>
+    <t>Foi solicitado a autorização dos exames mencionados acima porém, o qual o plano de saúde disse que o prazo seria 10 dias úteis para resposta, que depois de muitas ligações ele diz que não pode autorizar por falta de data na solicitação médica. _x005F_x000D_
+Desde quando isso detalhe é motivo de negativa de uma solicitação?</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como  pai do beneficiário, questiona a não cobertura para psicóloga ,fonoaudiólogo, terapia ocupacional, psicomotricidade método aba , pneumologista  e alergologista . A operadora indicou os prestadores  e nenhum profissional tem agenda disponível para atendimento. O procedimento foi solicitado à operadora desde o mês 01/2023, para realização no município Abreu e Lima. Protocolo 42238020230417495261 – data : 17/04/2023.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe da beneficiária, questiona a falta de atendimento para 40202038 ENDOSCOPIA DIGESTIVA ALTA COM BIÓPSIA E/OU CITOLOGIA, Solicitante DR FABIO MENEZES DE MELO. A solicitação foi feita à Operadora no dia 27/03/2023, para realização no município JABOATÃO DOS GARARAPES-PE. A operadora alega que o pedido está em análise e não apresenta resposta ao pedido. _x005F_x000D_
+Protocolo 42238020230327454875 data 27/03/2023 contato por telefone.</t>
+  </si>
+  <si>
+    <t>Interlocutor, que se identifica como pai da beneficiária questiona a falta de atendimento para Adenoidectomia por videoendoscopia, Amigdalectomia das palatinas, Timpanotomia para tubo de ventilação - unilateral e Turbinectomia ou turbinoplastia - unilateral. A solicitação foi feita à Operadora no dia 08/03/2023 para realização no município Recife. A operadora alega que o pedido está em cotação de materiais. Protocolo 42238020230417495889 Data 17/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A documentação da cirurgia foi entregue ao Hospital Santa Joana em 02/02/23. A operadora You Saúde, recebeu a solicitação de autorização do hospital em 02/03/23. Ao questionar ao hospital sobre a demora de 1 mês para o envio da autorização para o plano, fui informada que pelas regras da You Saúde, em casos de material solicitado pelo médico pede-se o mínimo de 3 cotações com empresas distintas antes de enviar a solicitação de autorização. A morosidade já começou daí. O hospital teve dificuldade em fazer as cotações e em achar fornecedor que aceite receber pela You Saúde. O prazo máximo de 21 dias para autorização do procedimento foi até 30/03/2023.Até a presente data o procedimento ainda não foi autorizado. Liguei em 15/04/2023 para a You Saúde que informou que o procedimento ainda não foi autorizado porquê o hospital não retornou o contato sobre um documento pendente. O hospital não atende no setor de cirurgias. E eu, que estou precisando realizar a cirurgia, fico neste impasse. </t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona suspensão, em 01/2023, por inadimplência. Relata que houve negativa de atendimento para atendimento em Pronto socorro em 17/04/2023, No município de Belo Horizonte no Prestador Mater Day. Contato não gerou protocolo com a operadora no telefone 33707017</t>
+  </si>
+  <si>
+    <t>Interlocutor que se identifica como esposo da beneficiária, questiona suspensão, em 01/2023, por inadimplência. Relata que houve negativa de atendimento para atendimento em Pronto socorro em 17/04/2023, No município de Belo Horizonte no Prestador Mater Day. Contato não gerou protocolo com a operadora no telefone 33707017</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para Reumatologia, informa também que as consultas agendadas estão sendo canceladas. Relata que tentou entrar em contato com a Operadora por meio do telefones 0800 1115859 e pelo CHAT da operadora - na data 18/04/2023 , em torno das 9:30h, sem sucesso.</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a não cobertura para consulta no pronto socorro. A solicitação foi feita à operadora no dia 15/04/2023, mas a mesma negou alegando que possui um atraso de 21 dias no pagamento da mensalidade. Protocolo: 42238020230415493191 data: 15/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para mamografia, densitometria óssea, cocoscopia oncótica, ultrassonografia da mama e axila , ultra endovaginal , eco cardiograma transtoracico, teste ergométrico. Fez o pedido pelo app 28/03/2023.Relata que tentou entrar em contato com a Operadora por meio do telefone 08001115859 na data 27/03/2023 , em torno de 15:30, sem sucesso.</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona o prazo de atendimento para 30208041 - Osteotomias segmentares da maxila ou malar, 30208050 - Osteotomia tipo Lefort, 30208025 - Osteoplastia para prognatismo, micrognatismo ou laterognatismo e 30209021 - Osteoplastias de mandíbula, solicitado em 31/01/2023. A operadora autorizou o serviço e agendou para o dia 18/04/2023. A operadora relata que ainda está fazendo negociação com fornecedores, sendo que já passou o prazo máximo previsto na RN nº 566/2022. Protocolo: 42238020230329458864 – Data:29/03/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sou Clinte do plano You Saúde é preciso realizar a cirurgia de desvio de septo e retirada de carnosidade nasal. A clínica que me atende enviou junto ao plano a documentação de pedido de autorização no mês de Dezembro de 2022, já estamos em Abril de 2023 e até então a cirurgia não foi autorizada. Eu entro em contato diariamente com o serviço do plano que me pede para aguardar. Porém já passou do prazo dos 21 dias e minha cirurgia de emergência não foi autorizada.  Deixo aqui o meu descontentamento com o serviço prestado pelo plano e peço que por gentileza vocês entrem em contato com o mesmo para uma verificação desse caso ainda não ser atendido com o devido respeito que nós Clientes do serviço necessitamos.  </t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona a não cobertura para Consulta com pneumologista com atendimento em criança . O procedimento foi solicitado à operadora no dia 13/03/2023, para realização no município Manaus AM e a operadora indicou prestadores que não realizam o procedimento. Protocolo 42238020230313425703 Data 13/03/2023 .</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Paciente beneficiário com instabilidade de perna direita, devido a lesões em joelho diagnosticado por ressonância magnética e testes clínicos: lachman, pivot positivos, mc murray, e appley positivos. O beneficiário apresenta dor aguda e impossibilidade para a prática de suas atividades básicas. Plano de saúde excedeu o prazo para a análise e autorização do procedimento e não oferece nenhuma justificativa ou solução. O Hospital Vila Velha, que realizará o procedimento, informou que a demora nas autorizações é uma prática comum e rotineira do plano de saúde You Saúde. </t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como mãe do beneficiário, questiona o não atendimento para Psicólogo. A solicitação foi feita à Operadora no dia 19/04/2023, no município Recife - PE  e o agendamento foi realizado para o município Abreu e Lima/ Paulista. Operadora Rosana 13:50 19/04/2023 alega que pode conforme RN 566 encaminhar para local diferente do solicitado (preferencia) do beneficiário. Solicita análise. Não foi aberto reclamação - houve recusa.</t>
+  </si>
+  <si>
+    <t>TRATA-SE DE DEMANDA ONDE A BENEFICIÁRIA REFERE QUE NECESSITOU DE ATENDIMENTO EM PRONTO ATENDIMENTO NO REAL HOSPITAL PORTUGUÊS DE BENEFICÊNCIA EM PERNAMBUCO NA DATA DE 07/02/2023, QUANDO REALIZOU O PROCEDIMENTO DE TOMOGRAFIA (TC) DO CRÂNIO TOTAL, O QUAL NÃO FOI AUTORIZADO PELO PLANO, E O PRESTADOR REALIZOU O PROCEDIMENTO MESMO SEM TER SIDO AUTORIZADO, E POSTERIORMENTE RECEBEU UMA MENSAGEM DO PRESTADOR HOSPITALAR (NO WHATSAPP DA RESPONSÁVEL FINANCEIRA, MÃE DA BENEFICIÁRIA), SOLICITANDO-LHE A COBRANÇA DO VALOR DE R$ 461,00, PELA TESOURARIA DO PRESTADOR.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para o anestesista para realização do procedimento endometriose peritoneal tratamento cirúrgico via laparoscópica, solicitado em 03/03/2023 e até o momento não apresenta resposta. Protocolo 42238020230419501607 – data 19/04/2023</t>
+  </si>
+  <si>
+    <t>QUANDO FECHEI O PLANO , FOI INFORMADO QUE A CARENCIA DOS EXAMES SERIA DE 180 DIAS, PORÉM NENHUM DOS EXAMES FOI AUTORIZADO E NAO QUEREM ESCLARECER O MOTIVO, SENDO QUE TODOS OS EXAMES SÃO EXAMES DE ROTINA.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para CONSULTA COM ENDOCRENOLOGISTA. A solicitação foi feita à Operadora no dia 12/04/2023, no município RECIFE e o agendamento foi realizado para o município OLINDA, dia 25/04/2023. Protocolo 40238020230419500415 – data 19/04/2023. BENEFICIARIA INFORMA QUE DE INICIO AGENDARAM A CONSULTA PARA DAQUI A 2 MESES, TAMBEM DERAM NUMEROS DE LUGARES QUE NAO ERA DE SEU ATENDIMENTO SOLICITADO E DEPOIS AO ENTRAR EM CONTATO COM A OUVIDORIA FIZERAM AGENDAMENTO PARA FORA D ESEU MUNICIPIO.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para DENSITOMETRIA OSSEA (conforme guia médica). A solicitação foi feita à Operadora no dia 12/03/2023, para realização no município Jaboatão dos Guararapes. A operadora não apresenta resposta ao pedido. Protocolo 422380202303024077 data 12/03/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a não cobertura para ressonância magnética da pelve com contraste e acompanhamento anestésico. O exame foi solicitado no dia 08/04/2023, para realização no município PE, Recife, entretanto, a operadora, alegando que o exame não possui cobertura.  Protocolo não disponibilizado, contato via e-mail.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para Microneurólise múltiplas.  A solicitação foi feita à operadora no dia 21/01/2023, mas a mesma negou alegando que tal serviço não consta no Rol de Procedimentos e Eventos em Saúde vigente, embora tal procedimento tenha sido identificado no Rol. Protocolo: 42238020230421505151  data: 21/04/2023</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a falta de atendimento para cirurgia de reconstrução do ligamento cruzado anterior (lca). A solicitação foi feita à Operadora no dia 16/03/2023, para realização no município Recife-PF. A operadora alega que o pedido está em análise. Protocolo: 42238020230424507457 Data: 24/04/2023.</t>
+  </si>
+  <si>
+    <t>_x005F_x000D_
+Interlocutor(a), que se identifica como mãe da Beneficiária, questiona a falta de atendimento para 30205034-ADENO-AMIGDALECTOMIA. A solicitação foi feita à Operadora no dia 01/2023, para realização no município RECIFE/PE. A operadora alega que o pedido está em análise. Protocolo:42238020230424507514 - 24/04/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Segundo entendimento dominante da jurisprudência pátria acerca desse assunto em relação ao período em que o plano está suspenso, mesmo que por inadimplência do consumidor, não pode ser cobrado valor de mensalidade referente ao período de suspensão. Ocorre que a You saúde suspendeu o atendimento ao meu plano em 20/03 em razão de atraso no pagamento da mensalidade vencida em 15/03/2023, e cobra todo o mês de março, em 14/04/2023 foi solicitado o cancelamento do plano por insatisfação na prestação do serviço, e agora querem cobrar também a mensalidade de abril 2023, mesmo sem prestarem qualquer tipo de serviço desde o dia 21/03/23. Ou seja, a partir da suspensão 21/03/23 até 14/04/23 a cobrança de mensalidade é indevida em razão da suspensão na prestação de serviços atestada via atendimento WhatsApp pela própria operadora e em relação à mensalidade com vencimento no curso da suspensão de 15/04/2023 é indevida em razão do cancelamento do plano de saúde. </t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a falta de atendimento para CIRURGIA BARIÁTRICA (GASTROPLASTIA), Solicitante DR RODRIGO SALES CRM 28574/MG . A solicitação foi feita à Operadora no dia 22/03/2023, para realização no município BELO HORIZONTE, no prestador HOSPITAL BELO HORIZONTE. A operadora alega que o pedido está em análise. _x005F_x000D_
+Protocolo 42238020230424508268 data 24/04/2023 contato por telefone.</t>
+  </si>
+  <si>
+    <t>Estou desde sábado tentando contato com convênio e tendo a consulta da minha filha negada por atraso de 10 dias no boleto, porém fiz o envio do comprovante por vários canais, hoje entrei em contato por várias vezes, minha filha consumidora do convênio a mais de 1 ano está com quadro de pneumonia e saturação baixa, precisando de oxigênio e internada em um pronto socorro do sus aguardando vaga pois o convênio se nega a atender o quadro dela que é de URGÊNCIA, JA TENTEI DE TODOS OS MODOS RELATAR A SITUACAO PARA O CONVÊNIO E SOU TRATADA COM TOTAL DESACASO!</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a não cobertura para realização do procedimento ressonância magnética de coluna cervical e crânio, solicitado em 19/04/2023. Operadora alega que solicitação está ilegível e não dispõe de outro meios do beneficiário envia cópia do pedido. Ressalva que pedido é do SUS e está perfeitamente legível. Protocolo 422380202304195022219 data 19/04/2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bom dia!_x005F_x000D_
+Dia 26/03/2023 abri um chamado ao plano solicitando a autorização do exame de angiotomografia de artérias, e sempre entrava no aplicativo para vê a situação do pedido que estava em análise, como eles dão 10 dias úteis para autorização resolvi ligar hoje pela manhã solicitando o número de autorização do exame, onde fui informada que o exame não é coberto e está no rol da ans, pedi mais informações a respeito mas o atendente n passou. Sou idosa meu médico passou o exame com uma certa urgência e minhas carências já foram todas cumpridas. Gostaria de saber se isso realmente procede </t>
+  </si>
+  <si>
+    <t>No dia 6 no dia 11 e no dia 22 do 4 foi feito pedido de ultra-som abdominal para minha filha de um ano todos foram negadas e a últimas ligações que eu fiz no dia 25/04 10:20 elas foram derrubadas tanto pela ura como pelo atendente e ninguém  resolver meu problema estou indignada._x005F_x000D_
+_x005F_x000D_
+_x005F_x000D_
+Falta de respeito  com cliente:pu 42238020230425510638</t>
+  </si>
+  <si>
+    <t>Interlocutora, que se identifica como esposa do beneficiário, questiona a não cobertura para internação em caráter de urgência e emergência. O procedimento foi solicitado no dia 25/04/2023, para realização no município de Uberlândia, entretanto, a operadora negou com a justificativa de que o beneficiário está em carência para o procedimento. Protocolo 423802023042551149  – data 25/04/2023.</t>
+  </si>
+  <si>
+    <t>Beneficiário, questiona a falta de atendimento para Artroplastia reversa de ombro direito(conforme pedido médico). A solicitação foi feita à Operadora no dia 25/10/2023, para realização no município Manaus/AM. A operadora alega que o pedido está em análise. Relata que em 02/2023 a própria operadora cancelou o pedido sem analisar. Protocolo 00856226102214683702 Data 25/10/2022</t>
+  </si>
+  <si>
+    <t>O demandante informou que contratou o plano de saúde em setembro de 2022, pagando o valor de R$ 433,00 (porque resolveu fazer a adesão no plano apartamento). Entretanto, em março de 2023, o valor foi para o importe de R$ 867,41. Acontece que em 13/04/2023 pediu formalmente para migrar para o plano enfermaria, porém não houve nenhuma redução em sua mensalidade, permanecendo para maio de 2023, o importe de R$ 867,41. Portanto, questiona a legalidade do valor do reajuste em sua contraprestação, bem como a permanência do valor em maio de 2023, com o plano na modalidade de enfermaria.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interlocutora, que se identifica como mãe do beneficiário, questiona a falta de atendimento para Neurologista e Psicólogo que atenda criança. A solicitação foi feita à Operadora no dia 25/03/2023, para realização no município Uberlândia-MG. A operadora alega que o pedido está em análise e não apresenta respostas. Protocolo: 42238020230424509658. Data: 09/04/2023._x005F_x000D_
 </t>
   </si>
   <si>
+    <t>SOLICITAÇÃO EM 12/04 PELO APLICATIVO DA MINHA ESPOSA PORÉM COM MEUS DADOS E JÁ SE PASSARAM 10 DIAS ÚTEIS E AINDA NÃO TIVE RETORNO._x005F_x000D_
+_x005F_x000D_
+NESTE MESMO PEDIDO TAMBÉM FOI UMA SOLICITAÇÃO DE RNM DO OMBRO DIREITO, PEÇO CELERIDADE DEVIDO ETOU SENTINDO MUITA DOR.</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona a não cobertura para FISIOTERAPIA, e nome do médico solicitante Dr. Danilo Fernandes. O procedimento foi solicitado no dia 13/04/2023, para realização no município Recife , entretanto, a operadora negou com a justificativa de que a beneficiária está em carência para o procedimento , sendo que há no contrato cláusula de redução de carência. Protocolo n° : 42238020230425511057 - contato por telefone – data :25/04/2023.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Beneficiário, questiona a falta de atendimento para  Retirada de vesícula  (conforme guia medica)  . A solicitação foi feita à Operadora no dia 08/03/2023, para realização no município Uberlândia   A operadora alega que o pedido está em análise  não apresenta resposta ao pedido . Protocolo: 42238020230425510452 data: 25/04/20023</t>
+  </si>
+  <si>
+    <t>Beneficiária, questiona o não atendimento para psicologia - terapia cognitiva comportamental . A solicitação foi feita à Operadora no dia 08/04/2023, no município Gravatá - PE e o agendamento foi realizado para o município Recife - PE, dia 16/04/2023. Protocolo 42238020230427516696 – data 27/04/2023.</t>
+  </si>
+  <si>
+    <t>fui na sensumed para fazer os exames de RX e RM e obtive a negativa do plano, com retorno de ate 21 dias, sendo que já cumpri todas as carencias do meu plano</t>
+  </si>
+  <si>
+    <t>Beneficiária, informa que houve solicitação de exclusão doa beneficiária de plano coletivo por adesão, em 28/04/2023, entretanto, até a presente data, a operadora negou o cancelamento informando que precisa aguardar ate a data 15/05/2023 para cancelar e que terá que fazer uma carta a próprio punho. Contato feito pelo WhatsApp. Beneficiaria não sabe a associação vinculada ao plano informa que não foi informado e ela não consegue achar, a mesma alega não ter condições de pagar.</t>
+  </si>
+  <si>
     <t>NO</t>
   </si>
   <si>
+    <t>SIM</t>
+  </si>
+  <si>
     <t>Assistencial</t>
+  </si>
+  <si>
+    <t>No Assistencial</t>
   </si>
 </sst>
 </file>
@@ -421,7 +742,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -464,37 +785,1816 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="2">
-        <v>45029.349375</v>
+        <v>45029.42144675926</v>
       </c>
       <c r="B2">
-        <v>12168095</v>
+        <v>12168346</v>
       </c>
       <c r="C2">
-        <v>8606114</v>
+        <v>8606403</v>
       </c>
       <c r="D2" t="s">
         <v>11</v>
       </c>
       <c r="E2">
-        <v>2573399494</v>
+        <v>18255624660</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>62</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>13</v>
+        <v>114</v>
       </c>
       <c r="I2" t="s">
-        <v>14</v>
+        <v>116</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>115</v>
       </c>
       <c r="K2">
         <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="2">
+        <v>45029.65606481482</v>
+      </c>
+      <c r="B3">
+        <v>12169638</v>
+      </c>
+      <c r="C3">
+        <v>8608000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3">
+        <v>37932152615</v>
+      </c>
+      <c r="F3" t="s">
+        <v>63</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>115</v>
+      </c>
+      <c r="I3" t="s">
+        <v>116</v>
+      </c>
+      <c r="J3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="2">
+        <v>45029.71498842593</v>
+      </c>
+      <c r="B4">
+        <v>12169885</v>
+      </c>
+      <c r="C4">
+        <v>8608362</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4">
+        <v>6150583619</v>
+      </c>
+      <c r="F4" t="s">
+        <v>64</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>114</v>
+      </c>
+      <c r="I4" t="s">
+        <v>117</v>
+      </c>
+      <c r="J4" t="s">
+        <v>115</v>
+      </c>
+      <c r="K4">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="2">
+        <v>45030.37834490741</v>
+      </c>
+      <c r="B5">
+        <v>12170407</v>
+      </c>
+      <c r="C5">
+        <v>8609005</v>
+      </c>
+      <c r="D5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s">
+        <v>65</v>
+      </c>
+      <c r="G5">
+        <v>2</v>
+      </c>
+      <c r="H5" t="s">
+        <v>114</v>
+      </c>
+      <c r="I5" t="s">
+        <v>116</v>
+      </c>
+      <c r="J5" t="s">
+        <v>114</v>
+      </c>
+      <c r="K5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="2">
+        <v>45030.68010416667</v>
+      </c>
+      <c r="B6">
+        <v>12171907</v>
+      </c>
+      <c r="C6">
+        <v>8610871</v>
+      </c>
+      <c r="D6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6">
+        <v>5960065436</v>
+      </c>
+      <c r="F6" t="s">
+        <v>66</v>
+      </c>
+      <c r="G6">
+        <v>2</v>
+      </c>
+      <c r="H6" t="s">
+        <v>114</v>
+      </c>
+      <c r="I6" t="s">
+        <v>116</v>
+      </c>
+      <c r="J6" t="s">
+        <v>114</v>
+      </c>
+      <c r="K6">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="2">
+        <v>45030.69832175926</v>
+      </c>
+      <c r="B7">
+        <v>12171995</v>
+      </c>
+      <c r="C7">
+        <v>8610984</v>
+      </c>
+      <c r="D7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7">
+        <v>6646531463</v>
+      </c>
+      <c r="F7" t="s">
+        <v>67</v>
+      </c>
+      <c r="G7">
+        <v>2</v>
+      </c>
+      <c r="H7" t="s">
+        <v>114</v>
+      </c>
+      <c r="I7" t="s">
+        <v>117</v>
+      </c>
+      <c r="J7" t="s">
+        <v>114</v>
+      </c>
+      <c r="K7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="2">
+        <v>45030.81541666666</v>
+      </c>
+      <c r="B8">
+        <v>12172275</v>
+      </c>
+      <c r="C8">
+        <v>8611319</v>
+      </c>
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <v>22696658803</v>
+      </c>
+      <c r="F8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8">
+        <v>2</v>
+      </c>
+      <c r="H8" t="s">
+        <v>114</v>
+      </c>
+      <c r="I8" t="s">
+        <v>116</v>
+      </c>
+      <c r="J8" t="s">
+        <v>114</v>
+      </c>
+      <c r="K8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="2">
+        <v>45033.41063657407</v>
+      </c>
+      <c r="B9">
+        <v>12172837</v>
+      </c>
+      <c r="C9">
+        <v>8611994</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9">
+        <v>3905800403</v>
+      </c>
+      <c r="F9" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9">
+        <v>3</v>
+      </c>
+      <c r="H9" t="s">
+        <v>114</v>
+      </c>
+      <c r="I9" t="s">
+        <v>116</v>
+      </c>
+      <c r="J9" t="s">
+        <v>114</v>
+      </c>
+      <c r="K9">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="2">
+        <v>45033.41476851852</v>
+      </c>
+      <c r="B10">
+        <v>12172860</v>
+      </c>
+      <c r="C10">
+        <v>8612020</v>
+      </c>
+      <c r="D10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10">
+        <v>3905800403</v>
+      </c>
+      <c r="F10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G10">
+        <v>3</v>
+      </c>
+      <c r="H10" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" t="s">
+        <v>116</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="2">
+        <v>45033.46383101852</v>
+      </c>
+      <c r="B11">
+        <v>12173082</v>
+      </c>
+      <c r="C11">
+        <v>8612275</v>
+      </c>
+      <c r="D11" t="s">
+        <v>19</v>
+      </c>
+      <c r="E11">
+        <v>41678206415</v>
+      </c>
+      <c r="F11" t="s">
+        <v>71</v>
+      </c>
+      <c r="G11">
+        <v>3</v>
+      </c>
+      <c r="H11" t="s">
+        <v>114</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>114</v>
+      </c>
+      <c r="K11">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="2">
+        <v>45033.53398148148</v>
+      </c>
+      <c r="B12">
+        <v>12173476</v>
+      </c>
+      <c r="C12">
+        <v>8612772</v>
+      </c>
+      <c r="D12" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12">
+        <v>1401859410</v>
+      </c>
+      <c r="F12" t="s">
+        <v>72</v>
+      </c>
+      <c r="G12">
+        <v>3</v>
+      </c>
+      <c r="H12" t="s">
+        <v>114</v>
+      </c>
+      <c r="I12" t="s">
+        <v>116</v>
+      </c>
+      <c r="J12" t="s">
+        <v>114</v>
+      </c>
+      <c r="K12">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="2">
+        <v>45033.55947916667</v>
+      </c>
+      <c r="B13">
+        <v>12173633</v>
+      </c>
+      <c r="C13">
+        <v>8612993</v>
+      </c>
+      <c r="D13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13">
+        <v>6547794490</v>
+      </c>
+      <c r="F13" t="s">
+        <v>73</v>
+      </c>
+      <c r="G13">
+        <v>3</v>
+      </c>
+      <c r="H13" t="s">
+        <v>114</v>
+      </c>
+      <c r="I13" t="s">
+        <v>116</v>
+      </c>
+      <c r="J13" t="s">
+        <v>114</v>
+      </c>
+      <c r="K13">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="2">
+        <v>45033.57063657408</v>
+      </c>
+      <c r="B14">
+        <v>12173717</v>
+      </c>
+      <c r="C14">
+        <v>8613126</v>
+      </c>
+      <c r="D14" t="s">
+        <v>22</v>
+      </c>
+      <c r="E14">
+        <v>86404725487</v>
+      </c>
+      <c r="F14" t="s">
+        <v>74</v>
+      </c>
+      <c r="G14">
+        <v>3</v>
+      </c>
+      <c r="H14" t="s">
+        <v>114</v>
+      </c>
+      <c r="I14" t="s">
+        <v>116</v>
+      </c>
+      <c r="J14" t="s">
+        <v>114</v>
+      </c>
+      <c r="K14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
+      <c r="A15" s="2">
+        <v>45033.58219907407</v>
+      </c>
+      <c r="B15">
+        <v>12173788</v>
+      </c>
+      <c r="C15">
+        <v>8613168</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>15965704402</v>
+      </c>
+      <c r="F15" t="s">
+        <v>75</v>
+      </c>
+      <c r="G15">
+        <v>3</v>
+      </c>
+      <c r="H15" t="s">
+        <v>114</v>
+      </c>
+      <c r="I15" t="s">
+        <v>116</v>
+      </c>
+      <c r="J15" t="s">
+        <v>114</v>
+      </c>
+      <c r="K15">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="A16" s="2">
+        <v>45033.66788194444</v>
+      </c>
+      <c r="B16">
+        <v>12174377</v>
+      </c>
+      <c r="C16">
+        <v>8613869</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>11898974586</v>
+      </c>
+      <c r="F16" t="s">
+        <v>76</v>
+      </c>
+      <c r="G16">
+        <v>3</v>
+      </c>
+      <c r="H16" t="s">
+        <v>114</v>
+      </c>
+      <c r="I16" t="s">
+        <v>116</v>
+      </c>
+      <c r="J16" t="s">
+        <v>114</v>
+      </c>
+      <c r="K16">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="2">
+        <v>45033.70738425926</v>
+      </c>
+      <c r="B17">
+        <v>12174582</v>
+      </c>
+      <c r="C17">
+        <v>8614152</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17">
+        <v>17278581400</v>
+      </c>
+      <c r="F17" t="s">
+        <v>77</v>
+      </c>
+      <c r="G17">
+        <v>3</v>
+      </c>
+      <c r="H17" t="s">
+        <v>114</v>
+      </c>
+      <c r="I17" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" t="s">
+        <v>114</v>
+      </c>
+      <c r="K17">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="A18" s="2">
+        <v>45033.89607638889</v>
+      </c>
+      <c r="B18">
+        <v>12175019</v>
+      </c>
+      <c r="C18">
+        <v>8614707</v>
+      </c>
+      <c r="D18" t="s">
+        <v>26</v>
+      </c>
+      <c r="E18">
+        <v>70282814426</v>
+      </c>
+      <c r="F18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+      <c r="H18" t="s">
+        <v>114</v>
+      </c>
+      <c r="I18" t="s">
+        <v>116</v>
+      </c>
+      <c r="J18" t="s">
+        <v>114</v>
+      </c>
+      <c r="K18">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
+      <c r="A19" s="2">
+        <v>45034.37311342593</v>
+      </c>
+      <c r="B19">
+        <v>12175201</v>
+      </c>
+      <c r="C19">
+        <v>8614896</v>
+      </c>
+      <c r="D19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19">
+        <v>15293127608</v>
+      </c>
+      <c r="F19" t="s">
+        <v>79</v>
+      </c>
+      <c r="G19">
+        <v>4</v>
+      </c>
+      <c r="H19" t="s">
+        <v>114</v>
+      </c>
+      <c r="I19" t="s">
+        <v>117</v>
+      </c>
+      <c r="J19" t="s">
+        <v>114</v>
+      </c>
+      <c r="K19">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
+      <c r="A20" s="2">
+        <v>45034.37660879629</v>
+      </c>
+      <c r="B20">
+        <v>12175213</v>
+      </c>
+      <c r="C20">
+        <v>8614896</v>
+      </c>
+      <c r="D20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20">
+        <v>11041195605</v>
+      </c>
+      <c r="F20" t="s">
+        <v>80</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+      <c r="H20" t="s">
+        <v>114</v>
+      </c>
+      <c r="I20" t="s">
+        <v>117</v>
+      </c>
+      <c r="J20" t="s">
+        <v>114</v>
+      </c>
+      <c r="K20">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
+      <c r="A21" s="2">
+        <v>45034.41371527778</v>
+      </c>
+      <c r="B21">
+        <v>12175368</v>
+      </c>
+      <c r="C21">
+        <v>8615113</v>
+      </c>
+      <c r="D21" t="s">
+        <v>29</v>
+      </c>
+      <c r="E21">
+        <v>40184650410</v>
+      </c>
+      <c r="F21" t="s">
+        <v>81</v>
+      </c>
+      <c r="G21">
+        <v>4</v>
+      </c>
+      <c r="H21" t="s">
+        <v>114</v>
+      </c>
+      <c r="I21" t="s">
+        <v>116</v>
+      </c>
+      <c r="J21" t="s">
+        <v>114</v>
+      </c>
+      <c r="K21">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
+      <c r="A22" s="2">
+        <v>45034.45064814815</v>
+      </c>
+      <c r="B22">
+        <v>12175551</v>
+      </c>
+      <c r="C22">
+        <v>8615297</v>
+      </c>
+      <c r="D22" t="s">
+        <v>30</v>
+      </c>
+      <c r="E22">
+        <v>18608070626</v>
+      </c>
+      <c r="F22" t="s">
+        <v>82</v>
+      </c>
+      <c r="G22">
+        <v>4</v>
+      </c>
+      <c r="H22" t="s">
+        <v>114</v>
+      </c>
+      <c r="I22" t="s">
+        <v>116</v>
+      </c>
+      <c r="J22" t="s">
+        <v>114</v>
+      </c>
+      <c r="K22">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
+      <c r="A23" s="2">
+        <v>45034.45431712963</v>
+      </c>
+      <c r="B23">
+        <v>12175574</v>
+      </c>
+      <c r="C23">
+        <v>8615295</v>
+      </c>
+      <c r="D23" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23">
+        <v>44895852415</v>
+      </c>
+      <c r="F23" t="s">
+        <v>83</v>
+      </c>
+      <c r="G23">
+        <v>4</v>
+      </c>
+      <c r="H23" t="s">
+        <v>114</v>
+      </c>
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" t="s">
+        <v>114</v>
+      </c>
+      <c r="K23">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
+      <c r="A24" s="2">
+        <v>45034.52925925926</v>
+      </c>
+      <c r="B24">
+        <v>12175983</v>
+      </c>
+      <c r="C24">
+        <v>8615761</v>
+      </c>
+      <c r="D24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E24">
+        <v>8930395430</v>
+      </c>
+      <c r="F24" t="s">
+        <v>84</v>
+      </c>
+      <c r="G24">
+        <v>4</v>
+      </c>
+      <c r="H24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" t="s">
+        <v>114</v>
+      </c>
+      <c r="K24">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
+      <c r="A25" s="2">
+        <v>45034.64997685186</v>
+      </c>
+      <c r="B25">
+        <v>12176717</v>
+      </c>
+      <c r="C25">
+        <v>8616802</v>
+      </c>
+      <c r="D25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E25">
+        <v>10722818483</v>
+      </c>
+      <c r="F25" t="s">
+        <v>85</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25" t="s">
+        <v>114</v>
+      </c>
+      <c r="I25" t="s">
+        <v>116</v>
+      </c>
+      <c r="J25" t="s">
+        <v>114</v>
+      </c>
+      <c r="K25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
+      <c r="A26" s="2">
+        <v>45034.71873842592</v>
+      </c>
+      <c r="B26">
+        <v>12177034</v>
+      </c>
+      <c r="C26">
+        <v>8617147</v>
+      </c>
+      <c r="D26" t="s">
+        <v>34</v>
+      </c>
+      <c r="E26">
+        <v>9267243209</v>
+      </c>
+      <c r="F26" t="s">
+        <v>86</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26" t="s">
+        <v>114</v>
+      </c>
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" t="s">
+        <v>114</v>
+      </c>
+      <c r="K26">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
+      <c r="A27" s="2">
+        <v>45035.35706018518</v>
+      </c>
+      <c r="B27">
+        <v>12177575</v>
+      </c>
+      <c r="C27">
+        <v>8617831</v>
+      </c>
+      <c r="D27" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27">
+        <v>18738007703</v>
+      </c>
+      <c r="F27" t="s">
+        <v>87</v>
+      </c>
+      <c r="G27">
+        <v>5</v>
+      </c>
+      <c r="H27" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27" t="s">
+        <v>116</v>
+      </c>
+      <c r="J27" t="s">
+        <v>114</v>
+      </c>
+      <c r="K27">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
+      <c r="A28" s="2">
+        <v>45035.60951388889</v>
+      </c>
+      <c r="B28">
+        <v>12178903</v>
+      </c>
+      <c r="C28">
+        <v>8619382</v>
+      </c>
+      <c r="D28" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28">
+        <v>71265711437</v>
+      </c>
+      <c r="F28" t="s">
+        <v>88</v>
+      </c>
+      <c r="G28">
+        <v>5</v>
+      </c>
+      <c r="H28" t="s">
+        <v>114</v>
+      </c>
+      <c r="I28" t="s">
+        <v>116</v>
+      </c>
+      <c r="J28" t="s">
+        <v>114</v>
+      </c>
+      <c r="K28">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
+      <c r="A29" s="2">
+        <v>45035.62222222222</v>
+      </c>
+      <c r="B29">
+        <v>12178992</v>
+      </c>
+      <c r="C29">
+        <v>8619478</v>
+      </c>
+      <c r="D29" t="s">
+        <v>37</v>
+      </c>
+      <c r="E29">
+        <v>70472354426</v>
+      </c>
+      <c r="F29" t="s">
+        <v>89</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29" t="s">
+        <v>114</v>
+      </c>
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" t="s">
+        <v>114</v>
+      </c>
+      <c r="K29">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
+      <c r="A30" s="2">
+        <v>45035.66303240741</v>
+      </c>
+      <c r="B30">
+        <v>12179220</v>
+      </c>
+      <c r="C30">
+        <v>8619783</v>
+      </c>
+      <c r="D30" t="s">
+        <v>38</v>
+      </c>
+      <c r="E30">
+        <v>9354915469</v>
+      </c>
+      <c r="F30" t="s">
+        <v>90</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30" t="s">
+        <v>114</v>
+      </c>
+      <c r="I30" t="s">
+        <v>116</v>
+      </c>
+      <c r="J30" t="s">
+        <v>114</v>
+      </c>
+      <c r="K30">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
+      <c r="A31" s="2">
+        <v>45035.71431712963</v>
+      </c>
+      <c r="B31">
+        <v>12179424</v>
+      </c>
+      <c r="C31">
+        <v>8620056</v>
+      </c>
+      <c r="D31" t="s">
+        <v>39</v>
+      </c>
+      <c r="E31">
+        <v>21421684268</v>
+      </c>
+      <c r="F31" t="s">
+        <v>91</v>
+      </c>
+      <c r="G31">
+        <v>5</v>
+      </c>
+      <c r="H31" t="s">
+        <v>114</v>
+      </c>
+      <c r="I31" t="s">
+        <v>116</v>
+      </c>
+      <c r="J31" t="s">
+        <v>114</v>
+      </c>
+      <c r="K31">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
+      <c r="A32" s="2">
+        <v>45035.77851851852</v>
+      </c>
+      <c r="B32">
+        <v>12179645</v>
+      </c>
+      <c r="C32">
+        <v>8620282</v>
+      </c>
+      <c r="D32" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32">
+        <v>7037594423</v>
+      </c>
+      <c r="F32" t="s">
+        <v>92</v>
+      </c>
+      <c r="G32">
+        <v>5</v>
+      </c>
+      <c r="H32" t="s">
+        <v>114</v>
+      </c>
+      <c r="I32" t="s">
+        <v>116</v>
+      </c>
+      <c r="J32" t="s">
+        <v>114</v>
+      </c>
+      <c r="K32">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
+      <c r="A33" s="2">
+        <v>45036.5390162037</v>
+      </c>
+      <c r="B33">
+        <v>12180669</v>
+      </c>
+      <c r="C33">
+        <v>8621569</v>
+      </c>
+      <c r="D33" t="s">
+        <v>41</v>
+      </c>
+      <c r="E33">
+        <v>49706926453</v>
+      </c>
+      <c r="F33" t="s">
+        <v>93</v>
+      </c>
+      <c r="G33">
+        <v>6</v>
+      </c>
+      <c r="H33" t="s">
+        <v>114</v>
+      </c>
+      <c r="I33" t="s">
+        <v>116</v>
+      </c>
+      <c r="J33" t="s">
+        <v>114</v>
+      </c>
+      <c r="K33">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
+      <c r="A34" s="2">
+        <v>45036.55559027778</v>
+      </c>
+      <c r="B34">
+        <v>12180752</v>
+      </c>
+      <c r="C34">
+        <v>8621665</v>
+      </c>
+      <c r="D34" t="s">
+        <v>42</v>
+      </c>
+      <c r="E34">
+        <v>16951670404</v>
+      </c>
+      <c r="F34" t="s">
+        <v>94</v>
+      </c>
+      <c r="G34">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>114</v>
+      </c>
+      <c r="I34" t="s">
+        <v>116</v>
+      </c>
+      <c r="J34" t="s">
+        <v>114</v>
+      </c>
+      <c r="K34">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
+      <c r="A35" s="2">
+        <v>45040.40141203703</v>
+      </c>
+      <c r="B35">
+        <v>12182380</v>
+      </c>
+      <c r="C35">
+        <v>8623587</v>
+      </c>
+      <c r="D35" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35">
+        <v>3752083484</v>
+      </c>
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+      <c r="G35">
+        <v>7</v>
+      </c>
+      <c r="H35" t="s">
+        <v>114</v>
+      </c>
+      <c r="I35" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" t="s">
+        <v>114</v>
+      </c>
+      <c r="K35">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
+      <c r="A36" s="2">
+        <v>45040.40820601852</v>
+      </c>
+      <c r="B36">
+        <v>12182409</v>
+      </c>
+      <c r="C36">
+        <v>8623619</v>
+      </c>
+      <c r="D36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36">
+        <v>3549946465</v>
+      </c>
+      <c r="F36" t="s">
+        <v>96</v>
+      </c>
+      <c r="G36">
+        <v>7</v>
+      </c>
+      <c r="H36" t="s">
+        <v>114</v>
+      </c>
+      <c r="I36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J36" t="s">
+        <v>114</v>
+      </c>
+      <c r="K36">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
+      <c r="A37" s="2">
+        <v>45040.43019675926</v>
+      </c>
+      <c r="B37">
+        <v>12182516</v>
+      </c>
+      <c r="C37">
+        <v>8623755</v>
+      </c>
+      <c r="D37" t="s">
+        <v>45</v>
+      </c>
+      <c r="E37">
+        <v>14013372444</v>
+      </c>
+      <c r="F37" t="s">
+        <v>97</v>
+      </c>
+      <c r="G37">
+        <v>7</v>
+      </c>
+      <c r="H37" t="s">
+        <v>114</v>
+      </c>
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>114</v>
+      </c>
+      <c r="K37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
+      <c r="A38" s="2">
+        <v>45040.65773148148</v>
+      </c>
+      <c r="B38">
+        <v>12183870</v>
+      </c>
+      <c r="C38">
+        <v>8625556</v>
+      </c>
+      <c r="D38" t="s">
+        <v>46</v>
+      </c>
+      <c r="E38">
+        <v>5075054684</v>
+      </c>
+      <c r="F38" t="s">
+        <v>98</v>
+      </c>
+      <c r="G38">
+        <v>7</v>
+      </c>
+      <c r="H38" t="s">
+        <v>114</v>
+      </c>
+      <c r="I38" t="s">
+        <v>117</v>
+      </c>
+      <c r="J38" t="s">
+        <v>114</v>
+      </c>
+      <c r="K38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
+      <c r="A39" s="2">
+        <v>45040.68935185186</v>
+      </c>
+      <c r="B39">
+        <v>12184044</v>
+      </c>
+      <c r="C39">
+        <v>8625713</v>
+      </c>
+      <c r="D39" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39">
+        <v>2996816617</v>
+      </c>
+      <c r="F39" t="s">
+        <v>99</v>
+      </c>
+      <c r="G39">
+        <v>7</v>
+      </c>
+      <c r="H39" t="s">
+        <v>114</v>
+      </c>
+      <c r="I39" t="s">
+        <v>116</v>
+      </c>
+      <c r="J39" t="s">
+        <v>114</v>
+      </c>
+      <c r="K39">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
+      <c r="A40" s="2">
+        <v>45040.71090277778</v>
+      </c>
+      <c r="B40">
+        <v>12184147</v>
+      </c>
+      <c r="C40">
+        <v>8625882</v>
+      </c>
+      <c r="D40" t="s">
+        <v>48</v>
+      </c>
+      <c r="E40">
+        <v>22707798789</v>
+      </c>
+      <c r="F40" t="s">
+        <v>100</v>
+      </c>
+      <c r="G40">
+        <v>7</v>
+      </c>
+      <c r="H40" t="s">
+        <v>114</v>
+      </c>
+      <c r="I40" t="s">
+        <v>116</v>
+      </c>
+      <c r="J40" t="s">
+        <v>114</v>
+      </c>
+      <c r="K40">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
+      <c r="A41" s="2">
+        <v>45041.47012731482</v>
+      </c>
+      <c r="B41">
+        <v>12185222</v>
+      </c>
+      <c r="C41">
+        <v>8627150</v>
+      </c>
+      <c r="D41" t="s">
+        <v>49</v>
+      </c>
+      <c r="E41">
+        <v>8938439704</v>
+      </c>
+      <c r="F41" t="s">
+        <v>101</v>
+      </c>
+      <c r="G41">
+        <v>8</v>
+      </c>
+      <c r="H41" t="s">
+        <v>114</v>
+      </c>
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" t="s">
+        <v>114</v>
+      </c>
+      <c r="K41">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
+      <c r="A42" s="2">
+        <v>45041.48047453703</v>
+      </c>
+      <c r="B42">
+        <v>12185294</v>
+      </c>
+      <c r="C42">
+        <v>8627273</v>
+      </c>
+      <c r="D42" t="s">
+        <v>50</v>
+      </c>
+      <c r="E42">
+        <v>24609196468</v>
+      </c>
+      <c r="F42" t="s">
+        <v>102</v>
+      </c>
+      <c r="G42">
+        <v>8</v>
+      </c>
+      <c r="H42" t="s">
+        <v>114</v>
+      </c>
+      <c r="I42" t="s">
+        <v>117</v>
+      </c>
+      <c r="J42" t="s">
+        <v>114</v>
+      </c>
+      <c r="K42">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
+      <c r="A43" s="2">
+        <v>45041.48710648148</v>
+      </c>
+      <c r="B43">
+        <v>12185344</v>
+      </c>
+      <c r="C43">
+        <v>8627323</v>
+      </c>
+      <c r="D43" t="s">
+        <v>51</v>
+      </c>
+      <c r="E43">
+        <v>2145282351</v>
+      </c>
+      <c r="F43" t="s">
+        <v>103</v>
+      </c>
+      <c r="G43">
+        <v>8</v>
+      </c>
+      <c r="H43" t="s">
+        <v>114</v>
+      </c>
+      <c r="I43" t="s">
+        <v>116</v>
+      </c>
+      <c r="J43" t="s">
+        <v>114</v>
+      </c>
+      <c r="K43">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
+      <c r="A44" s="2">
+        <v>45041.54740740741</v>
+      </c>
+      <c r="B44">
+        <v>12185693</v>
+      </c>
+      <c r="C44">
+        <v>8627708</v>
+      </c>
+      <c r="D44" t="s">
+        <v>52</v>
+      </c>
+      <c r="E44">
+        <v>3984642601</v>
+      </c>
+      <c r="F44" t="s">
+        <v>104</v>
+      </c>
+      <c r="G44">
+        <v>8</v>
+      </c>
+      <c r="H44" t="s">
+        <v>114</v>
+      </c>
+      <c r="I44" t="s">
+        <v>116</v>
+      </c>
+      <c r="J44" t="s">
+        <v>114</v>
+      </c>
+      <c r="K44">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
+      <c r="A45" s="2">
+        <v>45042.53133101852</v>
+      </c>
+      <c r="B45">
+        <v>12188132</v>
+      </c>
+      <c r="C45">
+        <v>8630820</v>
+      </c>
+      <c r="D45" t="s">
+        <v>53</v>
+      </c>
+      <c r="E45">
+        <v>7756526287</v>
+      </c>
+      <c r="F45" t="s">
+        <v>105</v>
+      </c>
+      <c r="G45">
+        <v>9</v>
+      </c>
+      <c r="H45" t="s">
+        <v>114</v>
+      </c>
+      <c r="I45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s">
+        <v>114</v>
+      </c>
+      <c r="K45">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
+      <c r="A46" s="2">
+        <v>45042.58119212963</v>
+      </c>
+      <c r="B46">
+        <v>12188425</v>
+      </c>
+      <c r="C46">
+        <v>8631201</v>
+      </c>
+      <c r="D46" t="s">
+        <v>54</v>
+      </c>
+      <c r="E46">
+        <v>37198475434</v>
+      </c>
+      <c r="F46" t="s">
+        <v>106</v>
+      </c>
+      <c r="G46">
+        <v>9</v>
+      </c>
+      <c r="H46" t="s">
+        <v>114</v>
+      </c>
+      <c r="I46" t="s">
+        <v>117</v>
+      </c>
+      <c r="J46" t="s">
+        <v>114</v>
+      </c>
+      <c r="K46">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
+      <c r="A47" s="2">
+        <v>45042.67297453704</v>
+      </c>
+      <c r="B47">
+        <v>12189027</v>
+      </c>
+      <c r="C47">
+        <v>8631928</v>
+      </c>
+      <c r="D47" t="s">
+        <v>55</v>
+      </c>
+      <c r="F47" t="s">
+        <v>107</v>
+      </c>
+      <c r="G47">
+        <v>9</v>
+      </c>
+      <c r="H47" t="s">
+        <v>114</v>
+      </c>
+      <c r="I47" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" t="s">
+        <v>114</v>
+      </c>
+      <c r="K47">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
+      <c r="A48" s="2">
+        <v>45043.41513888889</v>
+      </c>
+      <c r="B48">
+        <v>12189933</v>
+      </c>
+      <c r="C48">
+        <v>8633078</v>
+      </c>
+      <c r="D48" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48">
+        <v>45780633487</v>
+      </c>
+      <c r="F48" t="s">
+        <v>108</v>
+      </c>
+      <c r="G48">
+        <v>10</v>
+      </c>
+      <c r="H48" t="s">
+        <v>114</v>
+      </c>
+      <c r="I48" t="s">
+        <v>116</v>
+      </c>
+      <c r="J48" t="s">
+        <v>114</v>
+      </c>
+      <c r="K48">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
+      <c r="A49" s="2">
+        <v>45043.45592592593</v>
+      </c>
+      <c r="B49">
+        <v>12190147</v>
+      </c>
+      <c r="C49">
+        <v>8633308</v>
+      </c>
+      <c r="D49" t="s">
+        <v>57</v>
+      </c>
+      <c r="E49">
+        <v>42785634420</v>
+      </c>
+      <c r="F49" t="s">
+        <v>109</v>
+      </c>
+      <c r="G49">
+        <v>10</v>
+      </c>
+      <c r="H49" t="s">
+        <v>114</v>
+      </c>
+      <c r="I49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" t="s">
+        <v>114</v>
+      </c>
+      <c r="K49">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
+      <c r="A50" s="2">
+        <v>45043.63570601852</v>
+      </c>
+      <c r="B50">
+        <v>12191185</v>
+      </c>
+      <c r="C50">
+        <v>8634663</v>
+      </c>
+      <c r="D50" t="s">
+        <v>58</v>
+      </c>
+      <c r="E50">
+        <v>7315307648</v>
+      </c>
+      <c r="F50" t="s">
+        <v>110</v>
+      </c>
+      <c r="G50">
+        <v>10</v>
+      </c>
+      <c r="H50" t="s">
+        <v>114</v>
+      </c>
+      <c r="I50" t="s">
+        <v>116</v>
+      </c>
+      <c r="J50" t="s">
+        <v>114</v>
+      </c>
+      <c r="K50">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
+      <c r="A51" s="2">
+        <v>45043.65591435185</v>
+      </c>
+      <c r="B51">
+        <v>12191296</v>
+      </c>
+      <c r="C51">
+        <v>8634778</v>
+      </c>
+      <c r="D51" t="s">
+        <v>59</v>
+      </c>
+      <c r="E51">
+        <v>71789022487</v>
+      </c>
+      <c r="F51" t="s">
+        <v>111</v>
+      </c>
+      <c r="G51">
+        <v>10</v>
+      </c>
+      <c r="H51" t="s">
+        <v>114</v>
+      </c>
+      <c r="I51" t="s">
+        <v>116</v>
+      </c>
+      <c r="J51" t="s">
+        <v>114</v>
+      </c>
+      <c r="K51">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
+      <c r="A52" s="2">
+        <v>45044.51895833333</v>
+      </c>
+      <c r="B52">
+        <v>12192741</v>
+      </c>
+      <c r="C52">
+        <v>8636698</v>
+      </c>
+      <c r="D52" t="s">
+        <v>60</v>
+      </c>
+      <c r="E52">
+        <v>16041046272</v>
+      </c>
+      <c r="F52" t="s">
+        <v>112</v>
+      </c>
+      <c r="G52">
+        <v>10</v>
+      </c>
+      <c r="H52" t="s">
+        <v>114</v>
+      </c>
+      <c r="I52" t="s">
+        <v>116</v>
+      </c>
+      <c r="J52" t="s">
+        <v>114</v>
+      </c>
+      <c r="K52">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" s="2">
+        <v>45044.67462962963</v>
+      </c>
+      <c r="B53">
+        <v>12193483</v>
+      </c>
+      <c r="C53">
+        <v>8637495</v>
+      </c>
+      <c r="D53" t="s">
+        <v>61</v>
+      </c>
+      <c r="E53">
+        <v>36055972468</v>
+      </c>
+      <c r="F53" t="s">
+        <v>113</v>
+      </c>
+      <c r="G53">
+        <v>10</v>
+      </c>
+      <c r="H53" t="s">
+        <v>114</v>
+      </c>
+      <c r="I53" t="s">
+        <v>117</v>
+      </c>
+      <c r="J53" t="s">
+        <v>114</v>
+      </c>
+      <c r="K53">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
